--- a/resultados/alternativo.xlsx
+++ b/resultados/alternativo.xlsx
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,14 +56,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,10 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -392,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -522,8 +513,26 @@
       <c r="H5">
         <v>15.6244</v>
       </c>
+      <c r="J5">
+        <v>20.8245</v>
+      </c>
+      <c r="K5">
+        <v>33.365600000000001</v>
+      </c>
+      <c r="L5">
+        <v>15.0528</v>
+      </c>
     </row>
     <row r="6" spans="2:12">
+      <c r="B6">
+        <v>23.204599999999999</v>
+      </c>
+      <c r="C6">
+        <v>34.207099999999997</v>
+      </c>
+      <c r="D6">
+        <v>15.947699999999999</v>
+      </c>
       <c r="F6">
         <v>22.1508</v>
       </c>
@@ -533,8 +542,26 @@
       <c r="H6">
         <v>15.5199</v>
       </c>
+      <c r="J6">
+        <v>20.911799999999999</v>
+      </c>
+      <c r="K6">
+        <v>33.218899999999998</v>
+      </c>
+      <c r="L6">
+        <v>15.036300000000001</v>
+      </c>
     </row>
     <row r="7" spans="2:12">
+      <c r="B7">
+        <v>22.656099999999999</v>
+      </c>
+      <c r="C7">
+        <v>34.319299999999998</v>
+      </c>
+      <c r="D7">
+        <v>15.826499999999999</v>
+      </c>
       <c r="F7">
         <v>22.226900000000001</v>
       </c>
@@ -544,8 +571,26 @@
       <c r="H7">
         <v>15.6173</v>
       </c>
+      <c r="J7">
+        <v>21.196999999999999</v>
+      </c>
+      <c r="K7">
+        <v>33.250599999999999</v>
+      </c>
+      <c r="L7">
+        <v>15.1243</v>
+      </c>
     </row>
     <row r="8" spans="2:12">
+      <c r="B8">
+        <v>23.038699999999999</v>
+      </c>
+      <c r="C8">
+        <v>34.338500000000003</v>
+      </c>
+      <c r="D8">
+        <v>15.9381</v>
+      </c>
       <c r="F8">
         <v>22.0947</v>
       </c>
@@ -555,8 +600,26 @@
       <c r="H8">
         <v>15.5753</v>
       </c>
+      <c r="J8">
+        <v>21.950900000000001</v>
+      </c>
+      <c r="K8">
+        <v>33.263500000000001</v>
+      </c>
+      <c r="L8">
+        <v>15.337300000000001</v>
+      </c>
     </row>
     <row r="9" spans="2:12">
+      <c r="B9">
+        <v>23.309899999999999</v>
+      </c>
+      <c r="C9">
+        <v>34.183199999999999</v>
+      </c>
+      <c r="D9">
+        <v>15.9703</v>
+      </c>
       <c r="F9">
         <v>21.7576</v>
       </c>
@@ -566,8 +629,26 @@
       <c r="H9">
         <v>15.462300000000001</v>
       </c>
+      <c r="J9">
+        <v>21.236699999999999</v>
+      </c>
+      <c r="K9">
+        <v>33.180500000000002</v>
+      </c>
+      <c r="L9">
+        <v>15.1159</v>
+      </c>
     </row>
     <row r="10" spans="2:12">
+      <c r="B10">
+        <v>23.231200000000001</v>
+      </c>
+      <c r="C10">
+        <v>34.261800000000001</v>
+      </c>
+      <c r="D10">
+        <v>15.9703</v>
+      </c>
       <c r="F10">
         <v>22.1267</v>
       </c>
@@ -577,8 +658,26 @@
       <c r="H10">
         <v>15.6518</v>
       </c>
+      <c r="J10">
+        <v>21.854199999999999</v>
+      </c>
+      <c r="K10">
+        <v>33.175899999999999</v>
+      </c>
+      <c r="L10">
+        <v>15.286099999999999</v>
+      </c>
     </row>
     <row r="11" spans="2:12">
+      <c r="B11">
+        <v>23.160799999999998</v>
+      </c>
+      <c r="C11">
+        <v>34.252699999999997</v>
+      </c>
+      <c r="D11">
+        <v>15.9482</v>
+      </c>
       <c r="F11">
         <v>22.118200000000002</v>
       </c>
@@ -588,8 +687,26 @@
       <c r="H11">
         <v>15.6347</v>
       </c>
+      <c r="J11">
+        <v>22.6389</v>
+      </c>
+      <c r="K11">
+        <v>33.288400000000003</v>
+      </c>
+      <c r="L11">
+        <v>15.535299999999999</v>
+      </c>
     </row>
     <row r="12" spans="2:12">
+      <c r="B12">
+        <v>23.402000000000001</v>
+      </c>
+      <c r="C12">
+        <v>34.308399999999999</v>
+      </c>
+      <c r="D12">
+        <v>16.0307</v>
+      </c>
       <c r="F12">
         <v>21.429099999999998</v>
       </c>
@@ -599,8 +716,26 @@
       <c r="H12">
         <v>15.4115</v>
       </c>
+      <c r="J12">
+        <v>20.971599999999999</v>
+      </c>
+      <c r="K12">
+        <v>32.381700000000002</v>
+      </c>
+      <c r="L12">
+        <v>14.820399999999999</v>
+      </c>
     </row>
     <row r="13" spans="2:12">
+      <c r="B13">
+        <v>23.3857</v>
+      </c>
+      <c r="C13">
+        <v>34.3566</v>
+      </c>
+      <c r="D13">
+        <v>16.0395</v>
+      </c>
       <c r="F13">
         <v>21.891300000000001</v>
       </c>
@@ -609,6 +744,276 @@
       </c>
       <c r="H13">
         <v>15.5532</v>
+      </c>
+      <c r="J13">
+        <v>21.5641</v>
+      </c>
+      <c r="K13">
+        <v>32.702800000000003</v>
+      </c>
+      <c r="L13">
+        <v>15.074199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14">
+        <v>22.853300000000001</v>
+      </c>
+      <c r="C14">
+        <v>34.274900000000002</v>
+      </c>
+      <c r="D14">
+        <v>15.8689</v>
+      </c>
+      <c r="F14">
+        <v>20.596599999999999</v>
+      </c>
+      <c r="G14">
+        <v>33.646599999999999</v>
+      </c>
+      <c r="H14">
+        <v>15.067500000000001</v>
+      </c>
+      <c r="J14">
+        <v>20.8005</v>
+      </c>
+      <c r="K14">
+        <v>33.519399999999997</v>
+      </c>
+      <c r="L14">
+        <v>15.088900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15">
+        <v>22.691800000000001</v>
+      </c>
+      <c r="C15">
+        <v>34.354100000000003</v>
+      </c>
+      <c r="D15">
+        <v>15.8461</v>
+      </c>
+      <c r="F15">
+        <v>20.527699999999999</v>
+      </c>
+      <c r="G15">
+        <v>33.584099999999999</v>
+      </c>
+      <c r="H15">
+        <v>15.0311</v>
+      </c>
+      <c r="J15">
+        <v>20.700299999999999</v>
+      </c>
+      <c r="K15">
+        <v>33.566800000000001</v>
+      </c>
+      <c r="L15">
+        <v>15.074199999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16">
+        <v>23.5532</v>
+      </c>
+      <c r="C16">
+        <v>34.381900000000002</v>
+      </c>
+      <c r="D16">
+        <v>16.0931</v>
+      </c>
+      <c r="F16">
+        <v>21.932400000000001</v>
+      </c>
+      <c r="G16">
+        <v>33.495699999999999</v>
+      </c>
+      <c r="H16">
+        <v>15.396699999999999</v>
+      </c>
+      <c r="J16">
+        <v>20.771899999999999</v>
+      </c>
+      <c r="K16">
+        <v>33.549799999999998</v>
+      </c>
+      <c r="L16">
+        <v>15.089399999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="B17">
+        <v>23.0947</v>
+      </c>
+      <c r="C17">
+        <v>34.319000000000003</v>
+      </c>
+      <c r="D17">
+        <v>15.9482</v>
+      </c>
+      <c r="F17">
+        <v>21.8962</v>
+      </c>
+      <c r="G17">
+        <v>33.769300000000001</v>
+      </c>
+      <c r="H17">
+        <v>15.4626</v>
+      </c>
+      <c r="J17">
+        <v>21.231000000000002</v>
+      </c>
+      <c r="K17">
+        <v>33.7346</v>
+      </c>
+      <c r="L17">
+        <v>15.2682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="B18">
+        <v>23.7437</v>
+      </c>
+      <c r="C18">
+        <v>33.986199999999997</v>
+      </c>
+      <c r="D18">
+        <v>16.036100000000001</v>
+      </c>
+      <c r="F18">
+        <v>21.711500000000001</v>
+      </c>
+      <c r="G18">
+        <v>33.770000000000003</v>
+      </c>
+      <c r="H18">
+        <v>15.4115</v>
+      </c>
+      <c r="J18">
+        <v>21.571000000000002</v>
+      </c>
+      <c r="K18">
+        <v>33.643099999999997</v>
+      </c>
+      <c r="L18">
+        <v>15.337199999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="B19">
+        <v>23.848600000000001</v>
+      </c>
+      <c r="C19">
+        <v>34.061399999999999</v>
+      </c>
+      <c r="D19">
+        <v>16.086099999999998</v>
+      </c>
+      <c r="F19">
+        <v>22.268000000000001</v>
+      </c>
+      <c r="G19">
+        <v>33.805199999999999</v>
+      </c>
+      <c r="H19">
+        <v>15.575900000000001</v>
+      </c>
+      <c r="J19">
+        <v>21.5154</v>
+      </c>
+      <c r="K19">
+        <v>33.812199999999997</v>
+      </c>
+      <c r="L19">
+        <v>15.3688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20">
+        <v>22.947399999999998</v>
+      </c>
+      <c r="C20">
+        <v>34.934899999999999</v>
+      </c>
+      <c r="D20">
+        <v>16.078399999999998</v>
+      </c>
+      <c r="F20">
+        <v>21.763200000000001</v>
+      </c>
+      <c r="G20">
+        <v>34.228400000000001</v>
+      </c>
+      <c r="H20">
+        <v>15.5532</v>
+      </c>
+      <c r="J20">
+        <v>21.7608</v>
+      </c>
+      <c r="K20">
+        <v>33.6738</v>
+      </c>
+      <c r="L20">
+        <v>15.3985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21">
+        <v>23.018999999999998</v>
+      </c>
+      <c r="C21">
+        <v>34.886000000000003</v>
+      </c>
+      <c r="D21">
+        <v>16.084700000000002</v>
+      </c>
+      <c r="F21">
+        <v>22.096299999999999</v>
+      </c>
+      <c r="G21">
+        <v>34.125999999999998</v>
+      </c>
+      <c r="H21">
+        <v>15.6173</v>
+      </c>
+      <c r="J21">
+        <v>22.1675</v>
+      </c>
+      <c r="K21">
+        <v>33.550400000000003</v>
+      </c>
+      <c r="L21">
+        <v>15.4772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22">
+        <v>23.705500000000001</v>
+      </c>
+      <c r="C22">
+        <v>34.320900000000002</v>
+      </c>
+      <c r="D22">
+        <v>16.118500000000001</v>
+      </c>
+      <c r="F22">
+        <v>21.729099999999999</v>
+      </c>
+      <c r="G22">
+        <v>34.111699999999999</v>
+      </c>
+      <c r="H22">
+        <v>15.5113</v>
+      </c>
+      <c r="J22">
+        <v>21.7087</v>
+      </c>
+      <c r="K22">
+        <v>34.116100000000003</v>
+      </c>
+      <c r="L22">
+        <v>15.5069</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -617,39 +1022,39 @@
       </c>
       <c r="B25">
         <f>AVERAGE(B3:B23)</f>
-        <v>22.752066666666668</v>
+        <v>23.15512</v>
       </c>
       <c r="C25">
         <f>AVERAGE(C3:C23)</f>
-        <v>35.002633333333335</v>
+        <v>34.437740000000005</v>
       </c>
       <c r="D25">
         <f>AVERAGE(D3:D23)</f>
-        <v>16.043000000000003</v>
+        <v>15.99802</v>
       </c>
       <c r="F25">
         <f>AVERAGE(F3:F23)</f>
-        <v>22.00720909090909</v>
+        <v>21.830015</v>
       </c>
       <c r="G25">
         <f>AVERAGE(G3:G23)</f>
-        <v>33.940581818181819</v>
+        <v>33.894169999999995</v>
       </c>
       <c r="H25">
         <f>AVERAGE(H3:H23)</f>
-        <v>15.541063636363635</v>
+        <v>15.47894</v>
       </c>
       <c r="J25">
         <f>AVERAGE(J3:J23)</f>
-        <v>21.932099999999998</v>
+        <v>21.462050000000001</v>
       </c>
       <c r="K25">
         <f>AVERAGE(K3:K23)</f>
-        <v>33.649950000000004</v>
+        <v>33.414699999999996</v>
       </c>
       <c r="L25">
         <f>AVERAGE(L3:L23)</f>
-        <v>15.439450000000001</v>
+        <v>15.243539999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -658,39 +1063,39 @@
       </c>
       <c r="B26">
         <f>STDEV(B3:B23)</f>
-        <v>8.2429019970719775E-2</v>
+        <v>0.36775824238505023</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26:D26" si="0">STDEV(C3:C23)</f>
-        <v>0.14463624488119706</v>
+        <v>0.33146632979748097</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>5.1686652048667021E-2</v>
+        <v>8.6673468289108921E-2</v>
       </c>
       <c r="F26">
         <f>STDEV(F3:F23)</f>
-        <v>0.29718853091794672</v>
+        <v>0.5001167203500908</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" ref="G26:H26" si="1">STDEV(G3:G23)</f>
-        <v>0.19098212910183579</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G26" si="1">STDEV(G3:G23)</f>
+        <v>0.2243528144877254</v>
+      </c>
+      <c r="H26" s="2">
+        <f>STDEV(H3:H13)</f>
         <v>8.9841786188023645E-2</v>
       </c>
       <c r="J26">
         <f>STDEV(J3:J23)</f>
-        <v>0.19912126958253967</v>
+        <v>0.5404956862380631</v>
       </c>
       <c r="K26">
         <f t="shared" ref="K26:L26" si="2">STDEV(K3:K23)</f>
-        <v>9.4045201897767494E-3</v>
+        <v>0.38698539616115268</v>
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>5.7912045379177671E-2</v>
+        <v>0.1977228826306936</v>
       </c>
     </row>
   </sheetData>
